--- a/biology/Zoologie/Cycleryon/Cycleryon.xlsx
+++ b/biology/Zoologie/Cycleryon/Cycleryon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cycleryon est un genre éteint de crustacés décapodes de la famille des Eryonidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses fossiles ont été retrouvés dans le Jurassique supérieur d'Europe de l'Ouest, sur la marge nord de l'océan Téthys, en France et en Allemagne[3],[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses fossiles ont été retrouvés dans le Jurassique supérieur d'Europe de l'Ouest, sur la marge nord de l'océan Téthys, en France et en Allemagne,.
 Ses restes fossiles sont bien conservés dans les calcaires fins d'environnement peu profond comme le calcaire de Solnhofen en Allemagne (Tithonien), et les Lagerstätten des calcaires lithographiques des sites paléontologiques de Cerin (Kimméridgien terminal) et de Canjuers (Tithonien inférieur) en France.
 </t>
         </is>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces décapodes étaient des animaux marins benthiques vivant en grand nombre dans les eaux calmes et peu profondes des lagunes sur les côtes nord de l'océan Téthys[1].
-Cycleryon est un grand éryonidé (11,5 centimètres de long pour l'espèce C. bourseaui[1]). Son cephalothorax est de forme sub-circulaire et aplati dorso-ventralement avec des marges frontale et postérieure concaves. Ses marges latérales sont épineuses avec de larges incisions cervicales et post-cervicales[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces décapodes étaient des animaux marins benthiques vivant en grand nombre dans les eaux calmes et peu profondes des lagunes sur les côtes nord de l'océan Téthys.
+Cycleryon est un grand éryonidé (11,5 centimètres de long pour l'espèce C. bourseaui). Son cephalothorax est de forme sub-circulaire et aplati dorso-ventralement avec des marges frontale et postérieure concaves. Ses marges latérales sont épineuses avec de larges incisions cervicales et post-cervicales.
 </t>
         </is>
       </c>
